--- a/database/lattice/1002.xlsx
+++ b/database/lattice/1002.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="6980" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="6280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>col</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>gTd</t>
-  </si>
-  <si>
-    <t>−0.219</t>
   </si>
 </sst>
 </file>
@@ -435,13 +432,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
+      <c r="D2" s="4">
+        <v>-0.219</v>
       </c>
       <c r="E2" s="4">
         <v>1.7000000000000001E-2</v>
